--- a/github-scraper/data/github.xlsx
+++ b/github-scraper/data/github.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>repository_url</t>
   </si>
@@ -52,19 +52,37 @@
     <t>github.com/roboflow/trackers</t>
   </si>
   <si>
+    <t>https://github.com/metorial/mcp-containers</t>
+  </si>
+  <si>
     <t>roboflow/trackers</t>
   </si>
   <si>
+    <t>metorial/mcp-containers</t>
+  </si>
+  <si>
     <t>A unified library for object tracking featuring clean room re-implementations of leading multi-object tracking algorithms</t>
   </si>
   <si>
+    <t>Containerized versions of hundreds of MCP servers 📡 🧠</t>
+  </si>
+  <si>
     <t>2025-04-27 05:41:57</t>
   </si>
   <si>
+    <t>2025-04-27 15:13:54</t>
+  </si>
+  <si>
     <t>Python</t>
   </si>
   <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
     <t>Apache License 2.0</t>
+  </si>
+  <si>
+    <t>MIT License</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;div align="center"&gt;
@@ -231,12 +249,219 @@
 We welcome all contributions—whether it’s reporting issues, suggesting features, or submitting pull requests. Please read our [contributor guidelines](https://github.com/roboflow/trackers/blob/main/CONTRIBUTING.md) to learn about our processes and best practices.
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">
+&lt;img src="./assets/repo-header.png" alt="MCP Containers" width="100%" /&gt;
+&lt;h1 align="center"&gt;MCP Containers&lt;/h1&gt;
+&lt;p align="center"&gt;Containerized versions of hundreds of &lt;a href="https://modelcontextprotocol.io"&gt;MCP servers&lt;/a&gt; 📡 🧠&lt;/p&gt;
+## Features
+- **🚀 Simple Setup** - Just pull the Docker image to use any MCP server
+- **🛠️ Always Up-to-Date** - We automatically update the images daily
+- **🔒 Secure** - Run MCP servers in isolated containers
+## Motivation
+While experimenting with Model Context Protocol (MCP) servers, we found that setting them up could be a bit tedious and time-consuming. 
+To simplify the process, we created containerized versions of these servers—making it quick, easy, and secure for anyone to get started.
+This repository contains the scripts we use to build and manage these containers using [Nixpacks](https://nixpacks.com). 
+New images are automatically built whenever changes are made to the corresponding server repositories, 
+ensuring that our containers are always up-to-date.
+We're committed to supporting as many MCP servers as possible. 
+If there's a specific server you'd like to see included, feel free to open an issue or submit a pull request!
+## Usage
+To use the containers, simply pull the Docker image for the server you want to use. 
+We have provided a list of available servers below, along with their respective readme files.
+## Featured Servers
+- &lt;img src="https://github.com/21st-dev.png?size=120" width="12px" height="12px" /&gt; **[21st.dev Magic AI Agent MCP Server
+](catalog/21st-dev/magic-mcp/magic-mcp/README.md)** - Magic Component Platform (MCP) is a powerful AI-driven tool that helps developers create beautiful, modern UI components instantly through natural language descriptions. It integrates seamlessly with popular IDEs and provides a streamlined workflow for UI development.
+- &lt;img src="https://github.com/apify.png?size=120" width="12px" height="12px" /&gt; **[Apify MCP Server
+](catalog/apify/actors-mcp-server/actors-mcp-server/README.md)** - Implementation of an MCP server for all [Apify Actors](https://apify.com/store).
+- &lt;img src="https://github.com/apimatic.png?size=120" width="12px" height="12px" /&gt; **[APIMatic Validator MCP Server
+](catalog/apimatic/apimatic-validator-mcp/apimatic-validator-mcp/README.md)** - This repository provides a Model Context Protocol (MCP) Server for validating OpenAPI specifications using [APIMatic](https://www.apimatic.io/). The server processes OpenAPI files and returns validation summaries by leveraging APIMatic’s API.
+- &lt;img src="https://github.com/AudienseCo.png?size=120" width="12px" height="12px" /&gt; **[🏆 Audiense Insights MCP Server
+](catalog/AudienseCo/mcp-audiense-insights/mcp-audiense-insights/README.md)** - This server, based on the [Model Context Protocol (MCP)](https://github.com/modelcontextprotocol), allows **Claude** or any other MCP-compatible client to interact with your [Audiense Insights](https://www.audiense.com/) account. It extracts **marketing insights and audience analysis** from Audiense reports, covering **demographic, cultural, influencer, and content engagement analysis**.
+- &lt;img src="https://github.com/axiomhq.png?size=120" width="12px" height="12px" /&gt; **[Axiom MCP Server
+](catalog/axiomhq/mcp-server-axiom/mcp-server-axiom/README.md)** - A [Model Context Protocol](https://modelcontextprotocol.io/) server implementation for [Axiom](https://axiom.co) that enables AI agents to query your data using Axiom Processing Language (APL).
+- &lt;img src="https://github.com/base.png?size=120" width="12px" height="12px" /&gt; **[Base MCP Server
+](catalog/base/base-mcp/base-mcp/README.md)** - A Model Context Protocol (MCP) server that provides onchain tools for AI applications like Claude Desktop and Cursor, allowing them to interact with the Base Network and Coinbase API.
+- &lt;img src="https://github.com/browserbase.png?size=120" width="12px" height="12px" /&gt; **[Browserbase MCP Server
+](catalog/browserbase/mcp-server-browserbase/browserbase/README.md)** - This server provides cloud browser automation capabilities using [Browserbase](https://www.browserbase.com/), [Puppeteer](https://pptr.dev/), and [Stagehand](https://github.com/browserbase/stagehand). This server enables LLMs to interact with web pages, take screenshots, and execute JavaScript in a cloud browser environment.
+- &lt;img src="https://github.com/chargebee.png?size=120" width="12px" height="12px" /&gt; **[Chargebee MCP Server
+](catalog/chargebee/agentkit/modelcontextprotocol/README.md)** - Model Context Protocol (MCP) is a [standardized protocol](https://modelcontextprotocol.io/introduction) designed to manage context between large language models (LLMs) and external systems.
+- &lt;img src="https://github.com/chroma-core.png?size=120" width="12px" height="12px" /&gt; **[Chroma MCP Server
+](catalog/chroma-core/chroma-mcp/chroma-mcp/README.md)** - This server provides data retrieval capabilities powered by Chroma, enabling AI models to create collections over generated data and user inputs, and retrieve that data using vector search, full text search, metadata filtering, and more.
+- &lt;img src="https://github.com/CircleCI-Public.png?size=120" width="12px" height="12px" /&gt; **[CircleCI MCP Server
+](catalog/CircleCI-Public/mcp-server-circleci/mcp-server-circleci/README.md)** - Model Context Protocol (MCP) is a [new, standardized protocol](https://modelcontextprotocol.io/introduction) for managing context between large language models (LLMs) and external systems. In this repository, we provide an MCP Server for [CircleCI](https://circleci.com).
+- &lt;img src="https://github.com/cloudflare.png?size=120" width="12px" height="12px" /&gt; **[Cloudflare MCP Server
+](catalog/cloudflare/mcp-server-cloudflare/mcp-server-cloudflare/README.md)** - Model Context Protocol (MCP) is a [new, standardized protocol](https://modelcontextprotocol.io/introduction) for managing context between large language models (LLMs) and external systems. In this repository, we provide an installer as well as an MCP Server for [Cloudflare's API](https://api.cloudflare.com).
+- &lt;img src="https://github.com/comet-ml.png?size=120" width="12px" height="12px" /&gt; **[Opik MCP Server
+](catalog/comet-ml/opik-mcp/opik-mcp/README.md)** - Opik MCP Server is an open-source implementation of the Model Context Protocol for the Opik platform. It provides a unified interface for interacting with Opik's capabilities, supporting multiple transport mechanisms for flexible integration into various environments.
+- &lt;img src="https://github.com/devhub.png?size=120" width="12px" height="12px" /&gt; **[DevHub CMS MCP Server
+](catalog/devhub/devhub-cms-mcp/devhub-cms-mcp/README.md)** - A [Model Context Protocol (MCP)](https://modelcontextprotocol.io/) integration for managing content in the [DevHub CMS system](https://www.devhub.com/).
+- &lt;img src="https://github.com/elie222.png?size=120" width="12px" height="12px" /&gt; **[Inbox Zero MCP Server
+](catalog/elie222/inbox-zero/mcp-server/README.md)** - An MCP server to manage your inbox efficiently. Use it within Cursor, Windsurf, or Claude desktop to interact with your Inbox Zero personal assistant.
+- &lt;img src="https://github.com/exa-labs.png?size=120" width="12px" height="12px" /&gt; **[Exa MCP Server
+](catalog/exa-labs/exa-mcp-server/exa-mcp-server/README.md)** - A Model Context Protocol (MCP) server lets AI assistants like Claude use the Exa AI Search API for web searches. This setup allows AI models to get real-time web information in a safe and controlled way.
+- &lt;img src="https://github.com/github.png?size=120" width="12px" height="12px" /&gt; **[GitHub MCP Server
+](catalog/github/github-mcp-server/github-mcp-server/README.md)** - The GitHub MCP Server is a [Model Context Protocol (MCP)](https://modelcontextprotocol.io/introduction)
+- &lt;img src="https://github.com/gotohuman.png?size=120" width="12px" height="12px" /&gt; **[gotoHuman MCP Server
+](catalog/gotohuman/gotohuman-mcp-server/gotohuman-mcp-server/README.md)** - Let your **AI agents ask for human reviews** in gotoHuman via MCP.
+- &lt;img src="https://github.com/graphlit.png?size=120" width="12px" height="12px" /&gt; **[Graphlit MCP Server
+](catalog/graphlit/graphlit-mcp-server/graphlit-mcp-server/README.md)** - Model Context Protocol (MCP) Server for Graphlit Platform
+- &lt;img src="https://github.com/heroku.png?size=120" width="12px" height="12px" /&gt; **[Heroku MCP Server
+](catalog/heroku/heroku-mcp-server/heroku-mcp-server/README.md)** - The Heroku Platform MCP Server works on Common Runtime, Cedar Private and Shield Spaces, and Fir Private Spaces.
+- &lt;img src="https://github.com/hyperbrowserai.png?size=120" width="12px" height="12px" /&gt; **[Hyperbrowser MCP Server
+](catalog/hyperbrowserai/mcp/mcp/README.md)** - This is Hyperbrowser's Model Context Protocol (MCP) Server. It provides various tools to scrape, extract structured data, and crawl webpages. It also provides easy access to general purpose browser agents like OpenAI's CUA, Anthropic's Claude Computer Use, and Browser Use.
+- &lt;img src="https://github.com/IBM.png?size=120" width="12px" height="12px" /&gt; **[Watsonx.ai Flows Engine MCP Server
+](catalog/IBM/wxflows/javascript/README.md)** - Here's a step-by-step tutorial for setting up and deploying a project with wxflows, including installing necessary tools, deploying the app, and running it locally.
+- &lt;img src="https://github.com/integromat.png?size=120" width="12px" height="12px" /&gt; **[Make MCP Server
+](catalog/integromat/make-mcp-server/make-mcp-server/README.md)** - A Model Context Protocol server that enables Make scenarios to be utilized as tools by AI assistants. This integration allows AI systems to trigger and interact with your Make automation workflows.
+- &lt;img src="https://github.com/its-dart.png?size=120" width="12px" height="12px" /&gt; **[Dart MCP Server
+](catalog/its-dart/dart-mcp-server/dart-mcp-server/README.md)** - Dart AI Model Context Protocol (MCP) server
+- &lt;img src="https://github.com/jamsocket.png?size=120" width="12px" height="12px" /&gt; **[ForeverVM MCP Server
+](catalog/jamsocket/forevervm/mcp-server/README.md)** - MCP Server for ForeverVM, enabling Claude to execute code in a Python REPL.
+- &lt;img src="https://github.com/makenotion.png?size=120" width="12px" height="12px" /&gt; **[Notion MCP Server
+](catalog/makenotion/notion-mcp-server/notion-mcp-server/README.md)** - This project implements an [MCP server](https://spec.modelcontextprotocol.io/) for the [Notion API](https://developers.notion.com/reference/intro).
+- &lt;img src="https://github.com/mendableai.png?size=120" width="12px" height="12px" /&gt; **[Firecrawl MCP Server
+](catalog/mendableai/firecrawl-mcp-server/firecrawl-mcp-server/README.md)** - A Model Context Protocol (MCP) server implementation that integrates with [Firecrawl](https://github.com/mendableai/firecrawl) for web scraping capabilities.
+- &lt;img src="https://github.com/metoro-io.png?size=120" width="12px" height="12px" /&gt; **[Metoro MCP Server
+](catalog/metoro-io/metoro-mcp-server/metoro-mcp-server/README.md)** - This repository contains th Metoro MCP (Model Context Protocol) Server. This MCP Server allows you to interact with your Kubernetes cluster via the Claude Desktop App!
+- &lt;img src="https://github.com/microsoft.png?size=120" width="12px" height="12px" /&gt; **[Playwright MCP Server
+](catalog/microsoft/playwright-mcp/playwright-mcp/README.md)** - A Model Context Protocol (MCP) server that provides browser automation capabilities using [Playwright](https://playwright.dev). This server enables LLMs to interact with web pages through structured accessibility snapshots, bypassing the need for screenshots or visually-tuned models.
+- &lt;img src="https://github.com/needle-ai.png?size=120" width="12px" height="12px" /&gt; **[Needle MCP Server
+](catalog/needle-ai/needle-mcp/needle-mcp/README.md)** - MCP (Model Context Protocol) server to manage documents and perform searches using [Needle](https://needle-ai.com) through Claude’s Desktop Application.
+- &lt;img src="https://github.com/neondatabase.png?size=120" width="12px" height="12px" /&gt; **[Neon MCP Server
+](catalog/neondatabase/mcp-server-neon/mcp-server-neon/README.md)** - **Neon MCP Server** is an open-source tool that lets you interact with your Neon Postgres databases in **natural language**.
+- &lt;img src="https://github.com/oceanbase.png?size=120" width="12px" height="12px" /&gt; **[Oceanbase MCP Server
+](catalog/oceanbase/mcp-oceanbase/mcp-oceanbase/README.md)** - MCP Server for OceanBase database and its tools
+- &lt;img src="https://github.com/OctagonAI.png?size=120" width="12px" height="12px" /&gt; **[Octagon MCP Server
+](catalog/OctagonAI/octagon-mcp-server/octagon-mcp-server/README.md)** - A free Model Context Protocol (MCP) server that integrates with Octagon Market Intelligence API
+- &lt;img src="https://github.com/oxylabs.png?size=120" width="12px" height="12px" /&gt; **[Oxylabs MCP Server
+](catalog/oxylabs/oxylabs-mcp/oxylabs-mcp/README.md)** - The Oxylabs MCP server provides a bridge between AI models and the web. It enables them to scrape any URL, render JavaScript-heavy pages, extract and format content for AI use, bypass anti-scraping measures, and access geo-restricted web data from 195+ countries.
+- &lt;img src="https://github.com/PaddleHQ.png?size=120" width="12px" height="12px" /&gt; **[Paddle MCP Server
+](catalog/PaddleHQ/paddle-mcp-server/paddle-mcp-server/README.md)** - This is a [Model Context Protocol (MCP)](https://modelcontextprotocol.io/introduction) server that provides tools for interacting with the Paddle API.
+- &lt;img src="https://github.com/pydantic.png?size=120" width="12px" height="12px" /&gt; **[Logfire MCP Server
+](catalog/pydantic/logfire-mcp/logfire-mcp/README.md)** - This repository contains a Model Context Protocol (MCP) server with tools that can access the OpenTelemetry traces and
+- &lt;img src="https://github.com/qdrant.png?size=120" width="12px" height="12px" /&gt; **[Qdrant MCP server
+](catalog/qdrant/mcp-server-qdrant/mcp-server-qdrant/README.md)** - An official Qdrant Model Context Protocol (MCP) server implementation.
+- &lt;img src="https://github.com/ramp-public.png?size=120" width="12px" height="12px" /&gt; **[Ramp MCP server
+](catalog/ramp-public/ramp-mcp/ramp-mcp/README.md)** - A Model Context Protocol server for retrieving and analyzing data or running tasks for Ramp using Developer API. In order to get around token and input size limitations, this server implements a simple ETL pipeline + ephemeral sqlite database in memory for analysis by an LLM.
+- &lt;img src="https://github.com/screenshotone.png?size=120" width="12px" height="12px" /&gt; **[ScreenshotOne MCP Server
+](catalog/screenshotone/mcp/mcp/README.md)** - A simple implementation of an MCP server for the ScreenshotOne API
+- &lt;img src="https://github.com/semgrep.png?size=120" width="12px" height="12px" /&gt; **[Semgrep MCP Server
+](catalog/semgrep/mcp/mcp/README.md)** - A Model Context Protocol (MCP) server for using [Semgrep](https://semgrep.dev) to scan code for security vulnerabilities. Secure your [vibe coding](https://semgrep.dev/blog/2025/giving-appsec-a-seat-at-the-vibe-coding-table/)! 😅
+- &lt;img src="https://github.com/stripe.png?size=120" width="12px" height="12px" /&gt; **[Stripe MCP Server
+](catalog/stripe/agent-toolkit/modelcontextprotocol/README.md)** - The Stripe [Model Context Protocol](https://modelcontextprotocol.com/) server allows you to integrate with Stripe APIs through function calling. This protocol supports various tools to interact with different Stripe services.
+- &lt;img src="https://github.com/tavily-ai.png?size=120" width="12px" height="12px" /&gt; **[Tavily MCP Server
+](catalog/tavily-ai/tavily-mcp/tavily-mcp/README.md)** - An MCP server for Tavily search.
+- &lt;img src="https://github.com/tinybirdco.png?size=120" width="12px" height="12px" /&gt; **[Tinybird MCP server
+](catalog/tinybirdco/mcp-tinybird/mcp-tinybird/README.md)** - An MCP server to interact with a Tinybird Workspace from any MCP client.
+- &lt;img src="https://github.com/translated.png?size=120" width="12px" height="12px" /&gt; **[Lara Translate MCP Server
+](catalog/translated/lara-mcp/lara-mcp/README.md)** - A Model Context Protocol (MCP) Server for [Lara Translate](https://laratranslate.com/translate) API, enabling powerful translation capabilities with support for language detection and context-aware translations.
+- &lt;img src="https://github.com/Unstructured-IO.png?size=120" width="12px" height="12px" /&gt; **[Unstructured API MCP Server
+](catalog/Unstructured-IO/UNS-MCP/uns-mcp/README.md)** - An MCP server implementation for interacting with the Unstructured API. This server provides tools to list sources and workflows.
+- &lt;img src="https://github.com/vectorize-io.png?size=120" width="12px" height="12px" /&gt; **[Vectorize MCP Server
+](catalog/vectorize-io/vectorize-mcp-server/vectorize-mcp-server/README.md)** - A Model Context Protocol (MCP) server implementation that integrates with [Vectorize](https://vectorize.io/) for advanced Vector retrieval and text extraction.
+- &lt;img src="https://github.com/Verodat.png?size=120" width="12px" height="12px" /&gt; **[Verodat MCP Server
+](catalog/Verodat/verodat-mcp-server/verodat-mcp-server/README.md)** - Verodat MCP Server Implementation
+- &lt;img src="https://github.com/XeroAPI.png?size=120" width="12px" height="12px" /&gt; **[Xero MCP Server
+](catalog/XeroAPI/xero-mcp-server/xero-mcp-server/README.md)** - This is a Model Context Protocol (MCP) server implementation for Xero. It provides a bridge between the MCP protocol and Xero's API, allowing for standardized access to Xero's accounting and business features.
+- &lt;img src="https://github.com/yamadashy.png?size=120" width="12px" height="12px" /&gt; **[Repomix MCP Server
+](catalog/yamadashy/repomix/repomix/README.md)** - Pack your codebase into AI-friendly formats
+## Available Servers
+- &lt;img src="https://github.com/0xDAEF0F.png?size=120" width="12px" height="12px" /&gt; **[Job Searchoor MCP Server
+](catalog/0xDAEF0F/job-searchoor/job-searchoor/README.md)** - An MCP server implementation that provides job search functionality.
+- &lt;img src="https://github.com/0xshellming.png?size=120" width="12px" height="12px" /&gt; **[MCP Content Summarizer Server
+](catalog/0xshellming/mcp-summarizer/mcp-summarizer/README.md)** - A Model Context Protocol (MCP) server that provides intelligent summarization capabilities for various types of content using Google's Gemini 1.5 Pro model. This server can help you generate concise summaries while maintaining key information from different content formats.
+- &lt;img src="https://github.com/21st-dev.png?size=120" width="12px" height="12px" /&gt; **[21st.dev Magic AI Agent MCP Server
+](catalog/21st-dev/magic-mcp/magic-mcp/README.md)** - Magic Component Platform (MCP) is a powerful AI-driven tool that helps developers create beautiful, modern UI components instantly through natural language descriptions. It integrates seamlessly with popular IDEs and provides a streamlined workflow for UI development.
+- &lt;img src="https://github.com/34892002.png?size=120" width="12px" height="12px" /&gt; **[Bilibili MCP
+](catalog/34892002/bilibili-mcp-js/bilibili-mcp-js/README.md)** - MCP server for Bilibili search.
+- &lt;img src="https://github.com/66julienmartin.png?size=120" width="12px" height="12px" /&gt; **[Deepseek R1 MCP Server
+](catalog/66julienmartin/MCP-server-Deepseek_R1/mcp-server-deepseek-r-1/README.md)** - A Model Context Protocol (MCP) server implementation for the Deepseek R1 language model. Deepseek R1 is a powerful language model optimized for reasoning tasks with a context window of 8192 tokens.
+- &lt;img src="https://github.com/AbdelStark.png?size=120" width="12px" height="12px" /&gt; **[₿itcoin &amp; Lightning Network MCP Server
+](catalog/AbdelStark/bitcoin-mcp/bitcoin-mcp/README.md)** - Bitcoin &amp; Lightning Network MCP Server.
+- &lt;img src="https://github.com/AbdelStark.png?size=120" width="12px" height="12px" /&gt; **[🌐 Nostr MCP Server
+](catalog/AbdelStark/nostr-mcp/nostr-mcp/README.md)** - A Model Context Protocol (MCP) server that enables AI models to interact with Nostr, allowing them to post notes and interact with the freedom of speech protocol.
+- &lt;img src="https://github.com/abhiz123.png?size=120" width="12px" height="12px" /&gt; **[Todoist MCP Server
+](catalog/abhiz123/todoist-mcp-server/todoist-mcp-server/README.md)** - An MCP (Model Context Protocol) server implementation that integrates Claude with Todoist, enabling natural language task management. This server allows Claude to interact with your Todoist tasks using everyday language.
+- &lt;img src="https://github.com/ac3xx.png?size=120" width="12px" height="12px" /&gt; **[kagi-server MCP Server
+](catalog/ac3xx/mcp-servers-kagi/mcp-servers-kagi/README.md)** - MCP server for Kagi API integration
+- &lt;img src="https://github.com/adenot.png?size=120" width="12px" height="12px" /&gt; **[Google Search MCP Server
+](catalog/adenot/mcp-google-search/mcp-google-search/README.md)** - A Model Context Protocol server that provides web search capabilities using Google Custom Search API and webpage content extraction functionality.
+- &lt;img src="https://github.com/adityak74.png?size=120" width="12px" height="12px" /&gt; **[mcp-scholarly MCP server
+](catalog/adityak74/mcp-scholarly/mcp-scholarly/README.md)** - A MCP server to search for accurate academic articles. More scholarly vendors will be added soon.
+- &lt;img src="https://github.com/admica.png?size=120" width="12px" height="12px" /&gt; **[FileScopeMCP (Model Context Protocol) Server
+](catalog/admica/FileScopeMCP/file-scope-mcp/README.md)** - **✨ Instantly understand and visualize your codebase structure &amp; dependencies! ✨**
+- &lt;img src="https://github.com/agentmail-to.png?size=120" width="12px" height="12px" /&gt; **[AgentMail MCP Integration
+](catalog/agentmail-to/agentmail-toolkit/mcp/README.md)** - A simple **Model Context Protocol (MCP)** server that integrates with [AgentMail](https://agentmail.to) to dynamically manage email inboxes, list messages, and send or reply to emails—all through an AI assistant such as Claude. This reference implementation demonstrates how to use AgentMail’s API within an MCP server to orchestrate email inboxes on the fly.
+- &lt;img src="https://github.com/ahnlabio.png?size=120" width="12px" height="12px" /&gt; **[BICScan MCP Server
+](catalog/ahnlabio/bicscan-mcp/bicscan-mcp/README.md)** - A powerful and efficient Blockchain address risk scoring API MCP Server, leveraging the BICScan API to provide comprehensive risk assessments and asset information for blockchain addresses, domains, and decentralized applications (dApps).
+- &lt;img src="https://github.com/AI-Agent-Hub.png?size=120" width="12px" height="12px" /&gt; **[AI Agent Marketplace Index Search MCP Server
+](catalog/AI-Agent-Hub/ai-agent-marketplace-index-mcp/ai-agent-marketplace-index-mcp/README.md)** - MCP Server for AI Agent Marketplace Index from DeepNLP, , allowing AI assistants to searches available AI agents Navigation Page function, tools or use cases by "keywords" or "category". such as find all the "AI coding agents", "GUI AI Agents", "Mobile Use Agent", "Desktop Use Agent", etc.
+- &lt;img src="https://github.com/AI-QL.png?size=120" width="12px" height="12px" /&gt; **[MCP Chat Desktop App
+](catalog/AI-QL/chat-mcp/chat-mcp/README.md)** - A Cross-Platform Interface for LLMs
+- &lt;img src="https://github.com/akseyh.png?size=120" width="12px" height="12px" /&gt; **[Bear MCP Server
+](catalog/akseyh/bear-mcp-server/bear-mcp-server/README.md)** - This project is a Model Context Protocol (MCP) server that provides access to the [Bear Notes](https://bear.app).
+- &lt;img src="https://github.com/alexbakers.png?size=120" width="12px" height="12px" /&gt; **[🪐 MCP IPFS Server (storacha.network) 🛰️
+](catalog/alexbakers/mcp-ipfs/mcp-ipfs/README.md)** - A Node.js server implementing the [Model Context Protocol (MCP)](https://github.com/ModelContextProtocol/specification) for interacting with the [storacha.network](https://storacha.network/) platform via the w3 command-line interface (@web3-storage/w3cli).
+- &lt;img src="https://github.com/allenporter.png?size=120" width="12px" height="12px" /&gt; **[mcp-server-home-assistant
+](catalog/allenporter/mcp-server-home-assistant/mcp-server-home-assistant/README.md)** - A Model Context Protocol Server for Home Assistant. See [Model Context Protocol](https://modelcontextprotocol.io/)
+- &lt;img src="https://github.com/ambar.png?size=120" width="12px" height="12px" /&gt; **[simctl-mcp
+](catalog/ambar/simctl-mcp/simctl-mcp/README.md)** - A Model Context Protocol server implementation for iOS Simulator control.
+- &lt;img src="https://github.com/amidabuddha.png?size=120" width="12px" height="12px" /&gt; **[Unichat MCP Server in Python
+](catalog/amidabuddha/unichat-mcp-server/unichat-mcp-server/README.md)** - ASend requests to OpenAI, MistralAI, Anthropic, xAI, Google AI, DeepSeek, Alibaba, Inception using MCP protocol via tool or predefined prompts.
+- &lt;img src="https://github.com/anaisbetts.png?size=120" width="12px" height="12px" /&gt; **[mcp-installer - A MCP Server to install MCP Servers
+](catalog/anaisbetts/mcp-installer/mcp-installer/README.md)** - This server is a server that installs other MCP servers for you. Install it, and you can ask Claude to install MCP servers hosted in npm or PyPi for you. Requires npx and uv to be installed for node and Python servers respectively.
+- &lt;img src="https://github.com/andybrandt.png?size=120" width="12px" height="12px" /&gt; **[MCP Simple OpenAI Assistant
+](catalog/andybrandt/mcp-simple-openai-assistant/mcp-simple-openai-assistant/README.md)** - *AI assistants are pretty cool. I thought it would be a good idea if my Claude (conscious Claude) would also have one. And now he has - and its both useful anf fun for him. Your Claude can have one too!*
+- &lt;img src="https://github.com/andybrandt.png?size=120" width="12px" height="12px" /&gt; **[MCP Simple PubMed
+](catalog/andybrandt/mcp-simple-pubmed/mcp-simple-pubmed/README.md)** - An MCP server that provides access to PubMed articles through the Entrez API.
+- &lt;img src="https://github.com/angheljf.png?size=120" width="12px" height="12px" /&gt; **[NYTimes Article Search MCP Server
+](catalog/angheljf/nyt/nyt/README.md)** - This is a TypeScript-based MCP server that allows searching for New York Times articles from the last 30 days based on a keyword. It demonstrates core MCP concepts by providing:
+- &lt;img src="https://github.com/anjor.png?size=120" width="12px" height="12px" /&gt; **[Coinmarket MCP server
+](catalog/anjor/coinmarket-mcp-server/coinmarket-mcp-server/README.md)** - An MCP server that integrates with the Coinmarket API
+- &lt;img src="https://github.com/apeyroux.png?size=120" width="12px" height="12px" /&gt; **[MCP XMind Server
+](catalog/apeyroux/mcp-xmind/mcp-xmind/README.md)** - A Model Context Protocol server for analyzing and querying XMind mind maps. This tool provides powerful capabilities for searching, extracting, and analyzing content from XMind files.
+- &lt;img src="https://github.com/api7.png?size=120" width="12px" height="12px" /&gt; **[APISIX Model Context Protocol (MCP) Server
+](catalog/api7/apisix-mcp/apisix-mcp/README.md)** - APISIX Model Context Protocol (MCP) server is used to bridge large language models (LLMs) with the APISIX Admin API. It aims to enable natural language-based interaction for viewing and managing resources in APISIX through MCP-compatible AI clients.
+- &lt;img src="https://github.com/apify.png?size=120" width="12px" height="12px" /&gt; **[Apify MCP Server
+](catalog/apify/actors-mcp-server/actors-mcp-server/README.md)** - Implementation of an MCP server for all [Apify Actors](https://apify.com/store).
+- &lt;img src="https://github.com/apify.png?size=120" width="12px" height="12px" /&gt; **[RAG Web Browser Actor
+](catalog/apify/mcp-server-rag-web-browser/mcp-server-rag-web-browser/README.md)** - Implementation of an MCP server for the [RAG Web Browser Actor](https://apify.com/apify/rag-web-browser).
+- &lt;img src="https://github.com/apimatic.png?size=120" width="12px" height="12px" /&gt; **[APIMatic Validator MCP Server
+](catalog/apimatic/apimatic-validator-mcp/apimatic-validator-mcp/README.md)** - This repository provides a Model Context Protocol (MCP) Server for validating OpenAPI specifications using [APIMatic](https://www.apimatic.io/). The server processes OpenAPI files and returns validation summaries by leveraging APIMatic’s API.
+- &lt;img src="https://github.com/apinetwork.png?size=120" width="12px" height="12px" /&gt; **[piapi-mcp-server
+](catalog/apinetwork/piapi-mcp-server/piapi-mcp-server/README.md)** - A TypeScript implementation of a Model Context Protocol (MCP) server that integrates with PiAPI's API. PiAPI makes user able to generate media content with Midjourney/Flux/Kling/LumaLabs/Udio/Chrip/Trellis directly from Claude or any other MCP-compatible apps.
+- &lt;img src="https://github.com/arpitbatra123.png?size=120" width="12px" height="12px" /&gt; **[Google Tasks MCP Server
+](catalog/arpitbatra123/mcp-googletasks/mcp-googletasks/README.md)** - This Model Context Protocol (MCP) server provides a bridge between Claude and Google Tasks, allowing you to manage your task lists and tasks directly through Claude.
+- &lt;img src="https://github.com/AshDevFr.png?size=120" width="12px" height="12px" /&gt; **[Discourse MCP Server
+](catalog/AshDevFr/discourse-mcp-server/discourse-mcp-server/README.md)** - Node.js server implementing Model Context Protocol (MCP) for Discourse search operation.
+- &lt;img src="https://github.com/ashiknesin.png?size=120" width="12px" height="12px" /&gt; **[Pushover MCP
+](catalog/ashiknesin/pushover-mcp/pushover-mcp/README.md)** - A [Model Context Protocol](https://modelcontextprotocol.io/introduction) implementation for sending notifications via [Pushover.net](https://pushover.net).
+- &lt;img src="https://github.com/AudienseCo.png?size=120" width="12px" height="12px" /&gt; **[🏆 Audiense Insights MCP Server
+](catalog/AudienseCo/mcp-audiense-insights/mcp-audiense-insights/README.md)** - This server, based on the [Model Context Protocol (MCP)](https://github.com/modelcontextprotocol), allows **Claude** or any other MCP-compatible client to interact with your [Audiense Insights](https://www.audiense.com/) account. It extracts **marketing insights and audience analysis** from Audiense reports, covering **demographic, cultural, influencer, and content engagement analysis**.
+- &lt;img src="https://github.com/Automata-Labs-team.png?size=120" width="12px" height="12px" /&gt; **[MCP Server Playwright
+](catalog/Automata-Labs-team/MCP-Server-Playwright/mcp-server-playwright/README.md)** - MCP Server for interacting with Browsers using Playwright.
+- &lt;img src="https://github.com/automation-ai-labs.png?size=120" width="12px" height="12px" /&gt; **[MCP Link - Convert Any OpenAPI V3 API to MCP Server
+](catalog/automation-ai-labs/mcp-link/mcp-link/README.md)** - Convert Any OpenAPI V3 API to MCP Server
+- &lt;img src="https://github.com/awkoy.png?size=120" width="12px" height="12px" /&gt; **[Replicate Flux MCP
+](catalog/awkoy/replicate-flux-mcp/replicate-flux-mcp/README.md)** - MCP for Replicate Flux Model - A powerful tool for generating customized images and SVG assets that match specific coding vibes and aesthetic styles. Streamline your visual asset creation process with AI-powered design generation tailored for developers.
+- &lt;img src="https://github.com/aws-samples.png?size=120" width="12px" height="12px" /&gt; **[S3 Model Context Protocol Server
+](catalog/aws-samples/sample-mcp-server-s3/sample-mcp-server-s-3/README.md)** - An MCP server implementation for retrieving  data such as PDF's from S3.
+- &lt;img src="https://github.com/awwaiid.png?size=120" width="12px" height="12px" /&gt; **[TaskWarrior MCP Server
+](catalog/awwaiid/mcp-server-taskwarrior/mcp-server-taskwarrior/README.md)** - Node.js server implementing Model Context Protocol (MCP) for [TaskWarrior](https://taskwarrior.org/) operations.
+- &lt;img src="https://github.com/axiomhq.png?size=120" width="12px" height="12px" /&gt; **[Axiom MCP Server
+](catalog/axiomhq/mcp-server-axiom/mcp-server-axiom/README.md)** - A [Model Context Protocol](https://modelcontextprotocol.io/) server implementation for [Axiom](https://axiom.co) that enables AI agents to query your data using Axiom Processing Language (APL).
+- &lt;img src="https://github.com/Badhansen.png?size=120" width="12px" height="12px" /&gt; **[notion-mcp
+](catalog/Badhansen/notion-mcp/notion-mcp/README.md)** - A simple Model Context Protocol (MCP) server that integrates with Notion's API to manage my personal todo list.
+- &lt;img src="https://github.com/baidubce.png?size=120" width="12px" height="12px" /&gt; **[Baidu AI Search
+](catalog/baidubce/app-builder/ai-search/README.md)** - Baidu AI Search component combines Baidu's search capabilities with large language model technology to provide intelligent responses with real-time web informa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +476,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,16 +517,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,10 +871,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1110</v>
@@ -645,13 +883,13 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -660,10 +898,48 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>618</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>